--- a/仕様.xlsx
+++ b/仕様.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programing\MyCPU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programing\MyCPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB4579-C24F-4D37-997B-70EE22E6408E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE3506C-32E0-4174-8676-2959C4CEDB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>最低音</t>
     <rPh sb="0" eb="3">
@@ -52,60 +52,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最長音</t>
-    <rPh sb="0" eb="3">
-      <t>サイチョウオン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最短音</t>
-    <rPh sb="0" eb="3">
-      <t>サイタンオン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>モーター</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>16分</t>
-    <rPh sb="2" eb="3">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>付点8分</t>
-    <rPh sb="0" eb="2">
-      <t>フテン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C#4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>C#6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4分</t>
-    <rPh sb="1" eb="2">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8分</t>
-    <rPh sb="1" eb="2">
-      <t>ブ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -208,12 +163,246 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>角度は90度</t>
+    <t>BPM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最長音(分)</t>
+    <rPh sb="0" eb="3">
+      <t>サイチョウオン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最長音(ms)</t>
+    <rPh sb="0" eb="3">
+      <t>サイチョウオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最短音(ms)</t>
+    <rPh sb="0" eb="2">
+      <t>サイタン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最短音(分)</t>
+    <rPh sb="0" eb="3">
+      <t>サイタンオン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理数</t>
+    <rPh sb="0" eb="3">
+      <t>ショリスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000程度</t>
+    <rPh sb="4" eb="6">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500強</t>
+    <rPh sb="3" eb="4">
+      <t>キョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>800程度</t>
+    <rPh sb="3" eb="5">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>符点4</t>
+    <rPh sb="0" eb="2">
+      <t>フテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元ネタ：</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.nicovideo.jp/watch/sm982882</t>
+  </si>
+  <si>
+    <t>250msで往復、250ms待機</t>
+    <rPh sb="6" eb="8">
+      <t>オウフク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>途中で倍速になる</t>
+    <rPh sb="0" eb="2">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バイソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角度は80度</t>
     <rPh sb="0" eb="2">
       <t>カクド</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間[ms]</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>°/s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>元ネタに従う場合</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シタガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度変えるのめんど</t>
+    <rPh sb="0" eb="3">
+      <t>ソクドカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ずっと一定</t>
+    <rPh sb="3" eb="5">
+      <t>イッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→1280度/s(＝0.046875s/60度)必要</t>
+    <rPh sb="5" eb="6">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s/60°</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ON[ms]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OFF[ms]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角度[度]</t>
+    <rPh sb="0" eb="2">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角度[度]</t>
+    <rPh sb="0" eb="2">
+      <t>カクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SG90 PWM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角度72度</t>
+    <rPh sb="0" eb="2">
+      <t>カクド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→576度/s(=0.104s/度)</t>
+    <rPh sb="4" eb="5">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御が楽、SG90でいける</t>
+    <rPh sb="0" eb="2">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ラク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -222,10 +411,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,16 +430,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -337,15 +549,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,20 +737,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -679,662 +1122,883 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFBBDCC-3AB2-4DE4-B0AB-6FFEBC0958A4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="23" customWidth="1"/>
+    <col min="2" max="10" width="9" style="23"/>
+    <col min="11" max="13" width="9" style="23" customWidth="1"/>
+    <col min="14" max="14" width="9" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="23"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>32</v>
+    <row r="1" spans="1:14">
+      <c r="A1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="26"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="F2" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="M2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="23">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="F3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
+      <c r="M3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="23">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="F4" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="M4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="23">
+        <f>N2/(N3/1000)</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="F5" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="M5" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="25">
+        <f>60/N4</f>
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="F6" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="F7" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="M7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="26"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="M8" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="23">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="M9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="23">
+        <f>(N8*9.5/180+2.5)/100*20</f>
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="M10" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="23">
+        <f>20-N9</f>
+        <v>18.739999999999998</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I7"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{1335F330-6D20-4AC7-8682-A87B229FBA41}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F72CE9D-50E6-4461-A841-0621B3AF7A86}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>668</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="21">
+        <v>625</v>
+      </c>
+      <c r="H2" s="20">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>248</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="22">
+        <v>500</v>
+      </c>
+      <c r="H3" s="5">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>247</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F4" s="4">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G4" s="6">
+        <v>250</v>
+      </c>
+      <c r="H4" s="5">
+        <v>8</v>
+      </c>
+      <c r="I4" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>375</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9">
+        <v>250</v>
+      </c>
+      <c r="H5" s="8">
+        <v>8</v>
+      </c>
+      <c r="I5" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" thickBot="1"/>
+    <row r="7" spans="1:12">
+      <c r="A7" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" thickBot="1">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>248</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>247</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>375</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1"/>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>85</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <f>440*((2^(1/12))^(C9-69))</f>
         <v>1108.7305239074885</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <f>D9/2</f>
         <v>554.36526195374427</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <f>1000000/D9</f>
         <v>901.93241589102229</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <f>1000000/E9</f>
         <v>1803.8648317820446</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6">
+    <row r="10" spans="1:12">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
         <v>5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>83</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <f t="shared" ref="D10:D26" si="0">440*((2^(1/12))^(C10-69))</f>
         <v>987.76660251224848</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <f t="shared" ref="E10:E26" si="1">D10/2</f>
         <v>493.88330125612424</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <f t="shared" ref="F10:F26" si="2">1000000/D10</f>
         <v>1012.384906977658</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <f t="shared" ref="G10:G26" si="3">1000000/E10</f>
         <v>2024.7698139553161</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6">
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
         <v>5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>81</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <f t="shared" si="2"/>
         <v>1136.3636363636363</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <f t="shared" si="3"/>
         <v>2272.7272727272725</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="6">
+    <row r="12" spans="1:12">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
         <v>5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>80</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f t="shared" si="0"/>
         <v>830.60939515989048</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <f t="shared" si="1"/>
         <v>415.30469757994524</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <f t="shared" si="2"/>
         <v>1203.9353344991989</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <f t="shared" si="3"/>
         <v>2407.8706689983978</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="6">
+    <row r="13" spans="1:12">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5">
         <v>5</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>78</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f t="shared" si="0"/>
         <v>739.98884542326891</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <f t="shared" si="1"/>
         <v>369.99442271163446</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <f t="shared" si="2"/>
         <v>1351.371721594001</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <f t="shared" si="3"/>
         <v>2702.7434431880019</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="6">
+    <row r="14" spans="1:12">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5">
         <v>5</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>76</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <f t="shared" si="0"/>
         <v>659.25511382573995</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <f t="shared" si="1"/>
         <v>329.62755691286998</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <f t="shared" si="2"/>
         <v>1516.863470647766</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <f t="shared" si="3"/>
         <v>3033.726941295532</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6">
+    <row r="15" spans="1:12">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5">
         <v>5</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>73</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <f t="shared" si="0"/>
         <v>554.36526195374415</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <f t="shared" si="1"/>
         <v>277.18263097687208</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <f t="shared" si="2"/>
         <v>1803.864831782045</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="11">
         <f t="shared" si="3"/>
         <v>3607.7296635640901</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="6">
+    <row r="16" spans="1:12">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
         <v>4</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>71</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <f t="shared" si="0"/>
         <v>493.88330125612413</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f t="shared" si="1"/>
         <v>246.94165062806206</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <f t="shared" si="2"/>
         <v>2024.7698139553165</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="11">
         <f t="shared" si="3"/>
         <v>4049.539627910633</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="A17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="5">
         <v>4</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>69</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <f t="shared" si="2"/>
         <v>2272.7272727272725</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="11">
         <f t="shared" si="3"/>
         <v>4545.454545454545</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5">
         <v>4</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>68</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <f t="shared" si="0"/>
         <v>415.30469757994513</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <f t="shared" si="1"/>
         <v>207.65234878997256</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <f t="shared" si="2"/>
         <v>2407.8706689983983</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <f t="shared" si="3"/>
         <v>4815.7413379967966</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="5">
         <v>4</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>66</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <f t="shared" si="0"/>
         <v>369.99442271163434</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <f t="shared" si="1"/>
         <v>184.99721135581717</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <f t="shared" si="2"/>
         <v>2702.7434431880029</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="11">
         <f t="shared" si="3"/>
         <v>5405.4868863760057</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5">
         <v>4</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>64</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <f t="shared" si="0"/>
         <v>329.62755691286992</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <f t="shared" si="1"/>
         <v>164.81377845643496</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <f t="shared" si="2"/>
         <v>3033.7269412955329</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="11">
         <f t="shared" si="3"/>
         <v>6067.4538825910658</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5">
         <v>4</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>61</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <f t="shared" si="0"/>
         <v>277.18263097687208</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <f t="shared" si="1"/>
         <v>138.59131548843604</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <f t="shared" si="2"/>
         <v>3607.7296635640901</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <f t="shared" si="3"/>
         <v>7215.4593271281801</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5">
         <v>3</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>57</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <f t="shared" si="2"/>
         <v>4545.454545454545</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="11">
         <f t="shared" si="3"/>
         <v>9090.9090909090901</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5">
         <v>3</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>56</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <f t="shared" si="0"/>
         <v>207.65234878997256</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <f t="shared" si="1"/>
         <v>103.82617439498628</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <f t="shared" si="2"/>
         <v>4815.7413379967966</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <f t="shared" si="3"/>
         <v>9631.4826759935931</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="6">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5">
         <v>3</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>54</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <f t="shared" si="0"/>
         <v>184.99721135581717</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <f t="shared" si="1"/>
         <v>92.498605677908586</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f t="shared" si="2"/>
         <v>5405.4868863760057</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <f t="shared" si="3"/>
         <v>10810.973772752011</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="6">
+      <c r="A25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="5">
         <v>3</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>52</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <f t="shared" si="0"/>
         <v>164.81377845643493</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <f t="shared" si="1"/>
         <v>82.406889228217466</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <f t="shared" si="2"/>
         <v>6067.4538825910668</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G25" s="11">
         <f t="shared" si="3"/>
         <v>12134.907765182134</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19.5" thickBot="1">
-      <c r="A26" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="9">
+      <c r="A26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="8">
         <v>3</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>49</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <f t="shared" si="0"/>
         <v>138.59131548843604</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <f t="shared" si="1"/>
         <v>69.295657744218019</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <f t="shared" si="2"/>
         <v>7215.4593271281801</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <f t="shared" si="3"/>
         <v>14430.91865425636</v>
       </c>

--- a/仕様.xlsx
+++ b/仕様.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programing\MyCPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE3506C-32E0-4174-8676-2959C4CEDB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9780CC2A-0191-4658-BAF9-E8D8E014654B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -779,8 +779,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,6 +796,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -800,23 +815,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1124,7 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFBBDCC-3AB2-4DE4-B0AB-6FFEBC0958A4}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1144,24 +1144,24 @@
       <c r="B1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="26"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="F2" s="27" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="F2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="M2" s="23" t="s">
         <v>51</v>
       </c>
@@ -1170,18 +1170,18 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="F3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
       <c r="M3" s="23" t="s">
         <v>41</v>
       </c>
@@ -1190,18 +1190,18 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="F4" s="33" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
+      <c r="F4" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
       <c r="M4" s="23" t="s">
         <v>42</v>
       </c>
@@ -1211,18 +1211,18 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-      <c r="F5" s="33" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="F5" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
       <c r="M5" s="23" t="s">
         <v>48</v>
       </c>
@@ -1232,36 +1232,36 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="F6" s="33" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="F6" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="F7" s="36" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="F7" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
-      <c r="M7" s="26" t="s">
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="M7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="26"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" spans="1:14">
       <c r="M8" s="23" t="s">
@@ -1291,12 +1291,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A3:D3"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="F2:I2"/>
@@ -1305,6 +1299,12 @@
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -1318,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F72CE9D-50E6-4461-A841-0621B3AF7A86}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/仕様.xlsx
+++ b/仕様.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programing\MyCPU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\programing\MyCPU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9780CC2A-0191-4658-BAF9-E8D8E014654B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1394532C-D2B0-4017-B910-D6F7776BBA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="24240" windowHeight="13290" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3735" yWindow="6480" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24930" yWindow="4290" windowWidth="7500" windowHeight="6000" activeTab="2" xr2:uid="{38C3CFF7-1A11-4213-AF82-DD8F2E8527DF}"/>
+    <workbookView xWindow="2730" yWindow="3180" windowWidth="7500" windowHeight="6000" activeTab="1" xr2:uid="{4EB4C547-B349-4FA4-8669-707126EC783D}"/>
   </bookViews>
   <sheets>
     <sheet name="CPU" sheetId="1" r:id="rId1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>最低音</t>
     <rPh sb="0" eb="3">
@@ -403,6 +405,107 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低動作クロック</t>
+    <rPh sb="0" eb="4">
+      <t>サイテイドウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kHz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最低動作周期</t>
+    <rPh sb="0" eb="6">
+      <t>サイテイドウサシュウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノーツ構造</t>
+    <rPh sb="3" eb="5">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4分</t>
+    <rPh sb="1" eb="2">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8分</t>
+    <rPh sb="1" eb="2">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16分</t>
+    <rPh sb="2" eb="3">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音階5bit</t>
+    <rPh sb="0" eb="2">
+      <t>オンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ex.)符点8分F#4→011 01000=0x68</t>
+    <rPh sb="4" eb="5">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネギ命令構造</t>
+    <rPh sb="2" eb="4">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未使用</t>
+    <rPh sb="0" eb="3">
+      <t>ミシヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上か下か</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -461,7 +564,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -703,12 +806,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,6 +897,36 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -788,45 +936,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1108,12 +1254,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1">
+        <v>1.25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2">
+        <f>1/C1</f>
+        <v>0.8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:G12"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1125,7 +1383,11 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="2">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1144,24 +1406,24 @@
       <c r="B1" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="N1" s="38"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="F2" s="29" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="F2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
       <c r="M2" s="23" t="s">
         <v>51</v>
       </c>
@@ -1170,18 +1432,18 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="F3" s="35" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="F3" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="37"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
       <c r="M3" s="23" t="s">
         <v>41</v>
       </c>
@@ -1190,18 +1452,18 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="F4" s="32" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="F4" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
       <c r="M4" s="23" t="s">
         <v>42</v>
       </c>
@@ -1211,18 +1473,18 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="F5" s="32" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="F5" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
       <c r="M5" s="23" t="s">
         <v>48</v>
       </c>
@@ -1232,43 +1494,44 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="F6" s="32" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="F6" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="F7" s="26" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="F7" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="M7" s="38" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="M7" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="38"/>
+      <c r="N7" s="26"/>
     </row>
     <row r="8" spans="1:14">
       <c r="M8" s="23" t="s">
         <v>52</v>
       </c>
       <c r="N8" s="23">
-        <v>72</v>
+        <f>180/9.5*(5*N9-2.5)</f>
+        <v>71.05263157894737</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1276,8 +1539,7 @@
         <v>49</v>
       </c>
       <c r="N9" s="23">
-        <f>(N8*9.5/180+2.5)/100*20</f>
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1286,11 +1548,17 @@
       </c>
       <c r="N10" s="23">
         <f>20-N9</f>
-        <v>18.739999999999998</v>
+        <v>18.75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="F2:I2"/>
@@ -1299,12 +1567,6 @@
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -1318,9 +1580,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F72CE9D-50E6-4461-A841-0621B3AF7A86}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1518,165 +1784,183 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="17">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="48">
         <v>85</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="49">
         <f>440*((2^(1/12))^(C9-69))</f>
         <v>1108.7305239074885</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="50">
         <f>D9/2</f>
         <v>554.36526195374427</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="49">
         <f>1000000/D9</f>
         <v>901.93241589102229</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="50">
         <f>1000000/E9</f>
         <v>1803.8648317820446</v>
       </c>
+      <c r="H9">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="17">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="48">
         <v>83</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="49">
         <f t="shared" ref="D10:D26" si="0">440*((2^(1/12))^(C10-69))</f>
         <v>987.76660251224848</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="50">
         <f t="shared" ref="E10:E26" si="1">D10/2</f>
         <v>493.88330125612424</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="49">
         <f t="shared" ref="F10:F26" si="2">1000000/D10</f>
         <v>1012.384906977658</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="50">
         <f t="shared" ref="G10:G26" si="3">1000000/E10</f>
         <v>2024.7698139553161</v>
       </c>
+      <c r="H10">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="17">
         <v>5</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="48">
         <v>81</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="49">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="50">
         <f t="shared" si="1"/>
         <v>440</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="49">
         <f t="shared" si="2"/>
         <v>1136.3636363636363</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="50">
         <f t="shared" si="3"/>
         <v>2272.7272727272725</v>
       </c>
+      <c r="H11">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="17">
         <v>5</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="48">
         <v>80</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="49">
         <f t="shared" si="0"/>
         <v>830.60939515989048</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="50">
         <f t="shared" si="1"/>
         <v>415.30469757994524</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="49">
         <f t="shared" si="2"/>
         <v>1203.9353344991989</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="50">
         <f t="shared" si="3"/>
         <v>2407.8706689983978</v>
       </c>
+      <c r="H12">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="17">
         <v>5</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="48">
         <v>78</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="49">
         <f t="shared" si="0"/>
         <v>739.98884542326891</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="50">
         <f t="shared" si="1"/>
         <v>369.99442271163446</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="49">
         <f t="shared" si="2"/>
         <v>1351.371721594001</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="50">
         <f t="shared" si="3"/>
         <v>2702.7434431880019</v>
       </c>
+      <c r="H13">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="17">
         <v>5</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="48">
         <v>76</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="49">
         <f t="shared" si="0"/>
         <v>659.25511382573995</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="50">
         <f t="shared" si="1"/>
         <v>329.62755691286998</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="49">
         <f t="shared" si="2"/>
         <v>1516.863470647766</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="50">
         <f t="shared" si="3"/>
         <v>3033.726941295532</v>
+      </c>
+      <c r="H14">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1705,6 +1989,9 @@
         <f t="shared" si="3"/>
         <v>3607.7296635640901</v>
       </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
@@ -1732,8 +2019,11 @@
         <f t="shared" si="3"/>
         <v>4049.539627910633</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1759,8 +2049,11 @@
         <f t="shared" si="3"/>
         <v>4545.454545454545</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -1786,8 +2079,11 @@
         <f t="shared" si="3"/>
         <v>4815.7413379967966</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1813,8 +2109,11 @@
         <f t="shared" si="3"/>
         <v>5405.4868863760057</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
@@ -1840,8 +2139,11 @@
         <f t="shared" si="3"/>
         <v>6067.4538825910658</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1867,8 +2169,11 @@
         <f t="shared" si="3"/>
         <v>7215.4593271281801</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -1894,8 +2199,11 @@
         <f t="shared" si="3"/>
         <v>9090.9090909090901</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
         <v>10</v>
       </c>
@@ -1921,8 +2229,11 @@
         <f t="shared" si="3"/>
         <v>9631.4826759935931</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -1948,8 +2259,11 @@
         <f t="shared" si="3"/>
         <v>10810.973772752011</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
@@ -1975,8 +2289,11 @@
         <f t="shared" si="3"/>
         <v>12134.907765182134</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.5" thickBot="1">
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" thickBot="1">
       <c r="A26" s="7" t="s">
         <v>8</v>
       </c>
@@ -2001,6 +2318,9 @@
       <c r="G26" s="13">
         <f t="shared" si="3"/>
         <v>14430.91865425636</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
